--- a/tax_rates.xlsx
+++ b/tax_rates.xlsx
@@ -1,37 +1,227 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Financial/Investment/MACRO_STUDIES/CapWars_GLI/vbt_tax/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79629926-26E0-8E4D-A26A-5623C22FBB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+  <si>
+    <t>financial_year</t>
+  </si>
+  <si>
+    <t>bracket</t>
+  </si>
+  <si>
+    <t>tax_rate_(%)</t>
+  </si>
+  <si>
+    <t>base_tax_aud</t>
+  </si>
+  <si>
+    <t>bracket_min_aud</t>
+  </si>
+  <si>
+    <t>bracket_max_aud</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Buy &amp; Hold (benchmark)</t>
+  </si>
+  <si>
+    <t>Long green, sell yellow/red</t>
+  </si>
+  <si>
+    <t>Signal dep. sizing</t>
+  </si>
+  <si>
+    <t>Long green, sell yellow/red (with_tax)</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>1831 days 00:00:00</t>
+  </si>
+  <si>
+    <t>Start Value</t>
+  </si>
+  <si>
+    <t>End Value</t>
+  </si>
+  <si>
+    <t>Total Return [%]</t>
+  </si>
+  <si>
+    <t>Benchmark Return [%]</t>
+  </si>
+  <si>
+    <t>Max Gross Exposure [%]</t>
+  </si>
+  <si>
+    <t>Total Fees Paid</t>
+  </si>
+  <si>
+    <t>Max Drawdown [%]</t>
+  </si>
+  <si>
+    <t>Max Drawdown Duration</t>
+  </si>
+  <si>
+    <t>846 days 00:00:00</t>
+  </si>
+  <si>
+    <t>755 days 00:00:00</t>
+  </si>
+  <si>
+    <t>1048 days 00:00:00</t>
+  </si>
+  <si>
+    <t>1036 days 00:00:00</t>
+  </si>
+  <si>
+    <t>Total Trades</t>
+  </si>
+  <si>
+    <t>Total Closed Trades</t>
+  </si>
+  <si>
+    <t>Total Open Trades</t>
+  </si>
+  <si>
+    <t>Open Trade PnL</t>
+  </si>
+  <si>
+    <t>Win Rate [%]</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Best Trade [%]</t>
+  </si>
+  <si>
+    <t>Worst Trade [%]</t>
+  </si>
+  <si>
+    <t>Avg Winning Trade [%]</t>
+  </si>
+  <si>
+    <t>Avg Losing Trade [%]</t>
+  </si>
+  <si>
+    <t>Avg Winning Trade Duration</t>
+  </si>
+  <si>
+    <t>NaT</t>
+  </si>
+  <si>
+    <t>136 days 12:00:00</t>
+  </si>
+  <si>
+    <t>186 days 22:24:00</t>
+  </si>
+  <si>
+    <t>Avg Losing Trade Duration</t>
+  </si>
+  <si>
+    <t>23 days 12:00:00</t>
+  </si>
+  <si>
+    <t>26 days 11:12:00</t>
+  </si>
+  <si>
+    <t>Profit Factor</t>
+  </si>
+  <si>
+    <t>Expectancy</t>
+  </si>
+  <si>
+    <t>Sharpe Ratio</t>
+  </si>
+  <si>
+    <t>Calmar Ratio</t>
+  </si>
+  <si>
+    <t>Omega Ratio</t>
+  </si>
+  <si>
+    <t>Sortino Ratio</t>
+  </si>
+  <si>
+    <t>hOdLeR (taxed on exit)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +236,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,700 +564,1275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>financial_year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>bracket</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>tax_rate_(%)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>base_tax_aud</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>bracket_min_aud</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>bracket_max_aud</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>2020</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>18200</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2020</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>19</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>18201</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>37000</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2020</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>32.5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>3572</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>37001</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>90000</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>2020</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>37</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>20797</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>90001</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>180000</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>2020</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
         <v>45</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>54097</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>180001</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>2021</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>18200</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>2021</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>18201</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>45000</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>2021</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>32.5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>5092</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>45001</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>120000</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>2021</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>37</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>29467</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>120001</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>180000</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>2021</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>45</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>51667</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>180001</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>2022</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>18200</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>2022</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
         <v>19</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>18201</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>45000</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>2022</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
         <v>32.5</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>5092</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>45001</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>120000</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>2022</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
         <v>37</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>29467</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>120001</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>180000</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>2022</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
         <v>45</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>51667</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>180001</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>2023</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>18200</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>2023</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>19</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>18201</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>45000</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>2023</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>32.5</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>5092</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>45001</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>120000</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>2023</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
         <v>37</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>29467</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>120001</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>180000</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>2023</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
         <v>45</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>51667</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>180001</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>2024</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>18200</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>2024</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
         <v>19</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>18201</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>45000</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>2024</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
         <v>32.5</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>5092</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>45001</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>120000</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>2024</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
         <v>37</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>29467</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>120001</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>180000</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>2024</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
         <v>45</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>51667</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>180001</v>
       </c>
-      <c r="F26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>2025</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>18200</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>2025</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
         <v>16</v>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>18201</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>45000</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>2025</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
         <v>30</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>4288</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>45001</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>135000</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>2025</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
         <v>37</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>31288</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>135001</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>190000</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>2025</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
         <v>45</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>51638</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>190001</v>
       </c>
-      <c r="F31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AD37EF-F701-5B42-8736-9D0AB2BE4B8E}">
+  <dimension ref="J15:Q43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="15" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="K15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="5">
+        <v>43891</v>
+      </c>
+      <c r="L16" s="5">
+        <v>43891</v>
+      </c>
+      <c r="M16" s="5">
+        <v>43891</v>
+      </c>
+      <c r="N16" s="5">
+        <v>43891</v>
+      </c>
+      <c r="O16" s="5">
+        <v>43891</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="5">
+        <v>45721</v>
+      </c>
+      <c r="L17" s="5">
+        <v>45721</v>
+      </c>
+      <c r="M17" s="5">
+        <v>45721</v>
+      </c>
+      <c r="N17" s="5">
+        <v>45721</v>
+      </c>
+      <c r="O17" s="5">
+        <v>45721</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="4">
+        <v>10000</v>
+      </c>
+      <c r="L19" s="4">
+        <v>10000</v>
+      </c>
+      <c r="M19" s="4">
+        <v>10000</v>
+      </c>
+      <c r="N19" s="4">
+        <v>10000</v>
+      </c>
+      <c r="O19" s="4">
+        <v>10000</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="4">
+        <v>100890.676637</v>
+      </c>
+      <c r="L20" s="4">
+        <v>187885.78662599999</v>
+      </c>
+      <c r="M20" s="4">
+        <v>123337.683456</v>
+      </c>
+      <c r="N20" s="4">
+        <v>108865.14985</v>
+      </c>
+      <c r="O20" s="4">
+        <v>100890.676637</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="4">
+        <v>908.90676599999995</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1778.8578660000001</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1133.376835</v>
+      </c>
+      <c r="N21" s="4">
+        <v>988.65149899999994</v>
+      </c>
+      <c r="O21" s="4">
+        <v>908.90676599999995</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="4">
+        <v>908.90676599999995</v>
+      </c>
+      <c r="L22" s="4">
+        <v>908.90676599999995</v>
+      </c>
+      <c r="M22" s="4">
+        <v>908.90676599999995</v>
+      </c>
+      <c r="N22" s="4">
+        <v>988.65149899999994</v>
+      </c>
+      <c r="O22" s="4">
+        <v>908.90676599999995</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="4">
+        <v>100</v>
+      </c>
+      <c r="L23" s="4">
+        <v>100</v>
+      </c>
+      <c r="M23" s="4">
+        <v>100</v>
+      </c>
+      <c r="N23" s="4">
+        <v>100</v>
+      </c>
+      <c r="O23" s="4">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="4">
+        <v>76.670181999999997</v>
+      </c>
+      <c r="L25" s="4">
+        <v>40.379049999999999</v>
+      </c>
+      <c r="M25" s="4">
+        <v>56.717489999999998</v>
+      </c>
+      <c r="N25" s="4">
+        <v>50.922891</v>
+      </c>
+      <c r="O25" s="4">
+        <v>76.670181999999997</v>
+      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1</v>
+      </c>
+      <c r="L27" s="4">
+        <v>14</v>
+      </c>
+      <c r="M27" s="4">
+        <v>31</v>
+      </c>
+      <c r="N27" s="4">
+        <v>14</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>14</v>
+      </c>
+      <c r="M28" s="4">
+        <v>30</v>
+      </c>
+      <c r="N28" s="4">
+        <v>14</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>1</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" s="4">
+        <v>90890.676636999997</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>15846.641997999999</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="4">
+        <v>57.142856999999999</v>
+      </c>
+      <c r="M31" s="4">
+        <v>50</v>
+      </c>
+      <c r="N31" s="4">
+        <v>62.5</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="4">
+        <v>648.44628399999999</v>
+      </c>
+      <c r="M32" s="4">
+        <v>649.73579299999994</v>
+      </c>
+      <c r="N32" s="4">
+        <v>402.97245600000002</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="4">
+        <v>-10.955784</v>
+      </c>
+      <c r="M33" s="4">
+        <v>-30.433246</v>
+      </c>
+      <c r="N33" s="4">
+        <v>-14.843723000000001</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" s="4">
+        <v>102.340424</v>
+      </c>
+      <c r="M34" s="4">
+        <v>91.293214000000006</v>
+      </c>
+      <c r="N34" s="4">
+        <v>63.602367000000001</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="4">
+        <v>-6.0439259999999999</v>
+      </c>
+      <c r="M35" s="4">
+        <v>-8.6154630000000001</v>
+      </c>
+      <c r="N35" s="4">
+        <v>-8.0265740000000001</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="4">
+        <v>110.4</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N37" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" s="4">
+        <v>5.3007119999999999</v>
+      </c>
+      <c r="M38" s="4">
+        <v>4.1456730000000004</v>
+      </c>
+      <c r="N38" s="4">
+        <v>4.9375689999999999</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="4">
+        <v>12706.127616</v>
+      </c>
+      <c r="M39" s="4">
+        <v>3249.7013820000002</v>
+      </c>
+      <c r="N39" s="4">
+        <v>8512.1077550000009</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1.0415399999999999</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1.4392389999999999</v>
+      </c>
+      <c r="M40" s="4">
+        <v>1.216647</v>
+      </c>
+      <c r="N40" s="4">
+        <v>1.197319</v>
+      </c>
+      <c r="O40" s="4">
+        <v>1.0415399999999999</v>
+      </c>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0.76340399999999997</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1.9676089999999999</v>
+      </c>
+      <c r="M41" s="4">
+        <v>1.146166</v>
+      </c>
+      <c r="N41" s="4">
+        <v>1.19696</v>
+      </c>
+      <c r="O41" s="4">
+        <v>0.76340399999999997</v>
+      </c>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1.177419</v>
+      </c>
+      <c r="L42" s="4">
+        <v>1.302918</v>
+      </c>
+      <c r="M42" s="4">
+        <v>1.2306189999999999</v>
+      </c>
+      <c r="N42" s="4">
+        <v>1.249064</v>
+      </c>
+      <c r="O42" s="4">
+        <v>1.177419</v>
+      </c>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="J43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1.5200640000000001</v>
+      </c>
+      <c r="L43" s="4">
+        <v>2.2990780000000002</v>
+      </c>
+      <c r="M43" s="4">
+        <v>1.8628750000000001</v>
+      </c>
+      <c r="N43" s="4">
+        <v>1.8357870000000001</v>
+      </c>
+      <c r="O43" s="4">
+        <v>1.5200640000000001</v>
+      </c>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tax_rates.xlsx
+++ b/tax_rates.xlsx
@@ -8,15 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Financial/Investment/MACRO_STUDIES/CapWars_GLI/vbt_tax/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79629926-26E0-8E4D-A26A-5623C22FBB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A99FAE-3BD9-2F48-9382-337AA19D28E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -565,13 +578,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1173,6 +1194,12 @@
       </c>
       <c r="E31">
         <v>190001</v>
+      </c>
+    </row>
+    <row r="35" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <f>0.37/2</f>
+        <v>0.185</v>
       </c>
     </row>
   </sheetData>
@@ -1184,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AD37EF-F701-5B42-8736-9D0AB2BE4B8E}">
   <dimension ref="J15:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/tax_rates.xlsx
+++ b/tax_rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Financial/Investment/MACRO_STUDIES/CapWars_GLI/vbt_tax/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A99FAE-3BD9-2F48-9382-337AA19D28E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6DFF2C-F9CB-CF40-8E9D-E0FDC1B3FE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10000"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
   <si>
     <t>financial_year</t>
   </si>
@@ -199,15 +199,25 @@
   </si>
   <si>
     <t>hOdLeR (taxed on exit)</t>
+  </si>
+  <si>
+    <t>Base_tax (% of bracket min)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -217,6 +227,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -232,15 +243,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -263,19 +280,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -592,9 +623,13 @@
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,8 +648,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2020</v>
       </c>
@@ -634,7 +672,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
@@ -653,8 +691,12 @@
       <c r="F3">
         <v>37000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f>(D3/E3)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -673,8 +715,12 @@
       <c r="F4">
         <v>90000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f>(D4/E4)*100</f>
+        <v>9.6537931407259254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2020</v>
       </c>
@@ -693,8 +739,12 @@
       <c r="F5">
         <v>180000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f>(D5/E5)*100</f>
+        <v>23.107521027544138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2020</v>
       </c>
@@ -710,8 +760,12 @@
       <c r="E6">
         <v>180001</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f>(D6/E6)*100</f>
+        <v>30.053721923767089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2021</v>
       </c>
@@ -731,7 +785,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2021</v>
       </c>
@@ -750,8 +804,14 @@
       <c r="F8">
         <v>45000</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f>(D8/E8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2021</v>
       </c>
@@ -770,8 +830,14 @@
       <c r="F9">
         <v>120000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f>(D9/E9)*100</f>
+        <v>11.315304104353237</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2021</v>
       </c>
@@ -790,8 +856,13 @@
       <c r="F10">
         <v>180000</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f>(D10/E10)*100</f>
+        <v>24.55562870309414</v>
+      </c>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2021</v>
       </c>
@@ -807,8 +878,12 @@
       <c r="E11">
         <v>180001</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f>(D11/E11)*100</f>
+        <v>28.70372942372542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2022</v>
       </c>
@@ -828,7 +903,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2022</v>
       </c>
@@ -847,8 +922,12 @@
       <c r="F13">
         <v>45000</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f>(D13/E13)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2022</v>
       </c>
@@ -867,8 +946,12 @@
       <c r="F14">
         <v>120000</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f>(D14/E14)*100</f>
+        <v>11.315304104353237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2022</v>
       </c>
@@ -887,8 +970,12 @@
       <c r="F15">
         <v>180000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f>(D15/E15)*100</f>
+        <v>24.55562870309414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2022</v>
       </c>
@@ -904,8 +991,12 @@
       <c r="E16">
         <v>180001</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f>(D16/E16)*100</f>
+        <v>28.70372942372542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2023</v>
       </c>
@@ -925,7 +1016,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2023</v>
       </c>
@@ -944,8 +1035,12 @@
       <c r="F18">
         <v>45000</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f>(D18/E18)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2023</v>
       </c>
@@ -964,8 +1059,12 @@
       <c r="F19">
         <v>120000</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f>(D19/E19)*100</f>
+        <v>11.315304104353237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2023</v>
       </c>
@@ -984,8 +1083,12 @@
       <c r="F20">
         <v>180000</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <f>(D20/E20)*100</f>
+        <v>24.55562870309414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2023</v>
       </c>
@@ -1001,8 +1104,12 @@
       <c r="E21">
         <v>180001</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <f>(D21/E21)*100</f>
+        <v>28.70372942372542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2024</v>
       </c>
@@ -1022,7 +1129,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2024</v>
       </c>
@@ -1041,8 +1148,12 @@
       <c r="F23">
         <v>45000</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <f>(D23/E23)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2024</v>
       </c>
@@ -1061,8 +1172,12 @@
       <c r="F24">
         <v>120000</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <f>(D24/E24)*100</f>
+        <v>11.315304104353237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2024</v>
       </c>
@@ -1081,8 +1196,12 @@
       <c r="F25">
         <v>180000</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <f>(D25/E25)*100</f>
+        <v>24.55562870309414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2024</v>
       </c>
@@ -1098,8 +1217,12 @@
       <c r="E26">
         <v>180001</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <f>(D26/E26)*100</f>
+        <v>28.70372942372542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2025</v>
       </c>
@@ -1119,7 +1242,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2025</v>
       </c>
@@ -1138,8 +1261,12 @@
       <c r="F28">
         <v>45000</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <f>(D28/E28)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2025</v>
       </c>
@@ -1158,8 +1285,12 @@
       <c r="F29">
         <v>135000</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <f>(D29/E29)*100</f>
+        <v>9.5286771405079893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2025</v>
       </c>
@@ -1178,8 +1309,12 @@
       <c r="F30">
         <v>190000</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <f>(D30/E30)*100</f>
+        <v>23.176124621299103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2025</v>
       </c>
@@ -1195,21 +1330,20 @@
       <c r="E31">
         <v>190001</v>
       </c>
-    </row>
-    <row r="35" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P35">
-        <f>0.37/2</f>
-        <v>0.185</v>
+      <c r="G31">
+        <f>(D31/E31)*100</f>
+        <v>27.177751696043707</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AD37EF-F701-5B42-8736-9D0AB2BE4B8E}">
-  <dimension ref="J15:Q43"/>
+  <dimension ref="J15:O43"/>
   <sheetViews>
     <sheetView topLeftCell="E7" workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
@@ -1224,7 +1358,7 @@
     <col min="15" max="15" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="10:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="10:15" ht="16" x14ac:dyDescent="0.2">
       <c r="K15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1240,624 +1374,566 @@
       <c r="O15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J16" s="4" t="s">
+    </row>
+    <row r="16" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>43891</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>43891</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <v>43891</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <v>43891</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="4">
         <v>43891</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J17" s="4" t="s">
+    </row>
+    <row r="17" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>45721</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>45721</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <v>45721</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4">
         <v>45721</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="4">
         <v>45721</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J18" s="4" t="s">
+    </row>
+    <row r="18" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J19" s="4" t="s">
+    </row>
+    <row r="19" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>10000</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <v>10000</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <v>10000</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>10000</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>10000</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J20" s="4" t="s">
+    </row>
+    <row r="20" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>100890.676637</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <v>187885.78662599999</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <v>123337.683456</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <v>108865.14985</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <v>100890.676637</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J21" s="4" t="s">
+    </row>
+    <row r="21" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>908.90676599999995</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>1778.8578660000001</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <v>1133.376835</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <v>988.65149899999994</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <v>908.90676599999995</v>
       </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J22" s="4" t="s">
+    </row>
+    <row r="22" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>908.90676599999995</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <v>908.90676599999995</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="3">
         <v>908.90676599999995</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="3">
         <v>988.65149899999994</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="3">
         <v>908.90676599999995</v>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J23" s="4" t="s">
+    </row>
+    <row r="23" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J24" s="4" t="s">
+    </row>
+    <row r="24" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="4">
-        <v>0</v>
-      </c>
-      <c r="L24" s="4">
-        <v>0</v>
-      </c>
-      <c r="M24" s="4">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0</v>
-      </c>
-      <c r="O24" s="4">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J25" s="4" t="s">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <v>76.670181999999997</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <v>40.379049999999999</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="3">
         <v>56.717489999999998</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <v>50.922891</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="3">
         <v>76.670181999999997</v>
       </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J26" s="4" t="s">
+    </row>
+    <row r="26" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J27" s="4" t="s">
+    </row>
+    <row r="27" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <v>1</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="3">
         <v>14</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="3">
         <v>31</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <v>14</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="3">
         <v>1</v>
       </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J28" s="4" t="s">
+    </row>
+    <row r="28" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="4">
-        <v>0</v>
-      </c>
-      <c r="L28" s="4">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
         <v>14</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="3">
         <v>30</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="3">
         <v>14</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="3">
         <v>1</v>
       </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J29" s="4" t="s">
+    </row>
+    <row r="29" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>1</v>
       </c>
-      <c r="L29" s="4">
-        <v>0</v>
-      </c>
-      <c r="M29" s="4">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>1</v>
       </c>
-      <c r="N29" s="4">
-        <v>0</v>
-      </c>
-      <c r="O29" s="4">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J30" s="4" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <v>90890.676636999997</v>
       </c>
-      <c r="L30" s="4">
-        <v>0</v>
-      </c>
-      <c r="M30" s="4">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
         <v>15846.641997999999</v>
       </c>
-      <c r="N30" s="4">
-        <v>0</v>
-      </c>
-      <c r="O30" s="4">
-        <v>0</v>
-      </c>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J31" s="4" t="s">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="3">
         <v>57.142856999999999</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="3">
         <v>50</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="3">
         <v>62.5</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="O31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J32" s="4" t="s">
+    </row>
+    <row r="32" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="3">
         <v>648.44628399999999</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="3">
         <v>649.73579299999994</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="3">
         <v>402.97245600000002</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="O32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J33" s="4" t="s">
+    </row>
+    <row r="33" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="3">
         <v>-10.955784</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="3">
         <v>-30.433246</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="3">
         <v>-14.843723000000001</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="O33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J34" s="4" t="s">
+    </row>
+    <row r="34" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="3">
         <v>102.340424</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="3">
         <v>91.293214000000006</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="3">
         <v>63.602367000000001</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="O34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-    </row>
-    <row r="35" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J35" s="4" t="s">
+    </row>
+    <row r="35" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="3">
         <v>-6.0439259999999999</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="3">
         <v>-8.6154630000000001</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="3">
         <v>-8.0265740000000001</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="O35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-    </row>
-    <row r="36" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J36" s="4" t="s">
+    </row>
+    <row r="36" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="M36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="3">
         <v>110.4</v>
       </c>
-      <c r="O36" s="4" t="s">
+      <c r="O36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-    </row>
-    <row r="37" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J37" s="4" t="s">
+    </row>
+    <row r="37" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37" s="3">
         <v>21.5</v>
       </c>
-      <c r="O37" s="4" t="s">
+      <c r="O37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-    </row>
-    <row r="38" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J38" s="4" t="s">
+    </row>
+    <row r="38" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="3">
         <v>5.3007119999999999</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="3">
         <v>4.1456730000000004</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38" s="3">
         <v>4.9375689999999999</v>
       </c>
-      <c r="O38" s="4" t="s">
+      <c r="O38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-    </row>
-    <row r="39" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J39" s="4" t="s">
+    </row>
+    <row r="39" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="3">
         <v>12706.127616</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39" s="3">
         <v>3249.7013820000002</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="3">
         <v>8512.1077550000009</v>
       </c>
-      <c r="O39" s="4" t="s">
+      <c r="O39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J40" s="4" t="s">
+    </row>
+    <row r="40" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J40" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="3">
         <v>1.0415399999999999</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="3">
         <v>1.4392389999999999</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M40" s="3">
         <v>1.216647</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N40" s="3">
         <v>1.197319</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O40" s="3">
         <v>1.0415399999999999</v>
       </c>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J41" s="4" t="s">
+    </row>
+    <row r="41" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="3">
         <v>0.76340399999999997</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="3">
         <v>1.9676089999999999</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41" s="3">
         <v>1.146166</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="3">
         <v>1.19696</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O41" s="3">
         <v>0.76340399999999997</v>
       </c>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-    </row>
-    <row r="42" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J42" s="4" t="s">
+    </row>
+    <row r="42" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J42" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="3">
         <v>1.177419</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="3">
         <v>1.302918</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M42" s="3">
         <v>1.2306189999999999</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N42" s="3">
         <v>1.249064</v>
       </c>
-      <c r="O42" s="4">
+      <c r="O42" s="3">
         <v>1.177419</v>
       </c>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-    </row>
-    <row r="43" spans="10:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="J43" s="4" t="s">
+    </row>
+    <row r="43" spans="10:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="J43" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="3">
         <v>1.5200640000000001</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L43" s="3">
         <v>2.2990780000000002</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M43" s="3">
         <v>1.8628750000000001</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N43" s="3">
         <v>1.8357870000000001</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" s="3">
         <v>1.5200640000000001</v>
       </c>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
